--- a/data/InfoUAV.xlsx
+++ b/data/InfoUAV.xlsx
@@ -70,13 +70,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0">
-        <v>636.51281459039649</v>
+        <v>518.79166569739186</v>
       </c>
       <c r="C1" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0">
         <v>23</v>
@@ -94,18 +94,18 @@
         <v>101</v>
       </c>
       <c r="I1" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>490</v>
+        <v>434</v>
       </c>
       <c r="B2" s="0">
-        <v>719.1437397823953</v>
+        <v>471.3308691992213</v>
       </c>
       <c r="C2" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0">
         <v>23</v>
@@ -123,18 +123,18 @@
         <v>102</v>
       </c>
       <c r="I2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>862</v>
+        <v>884</v>
       </c>
       <c r="B3" s="0">
-        <v>492.00308189800035</v>
+        <v>606.5769472566792</v>
       </c>
       <c r="C3" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="0">
         <v>23</v>
@@ -152,18 +152,18 @@
         <v>103</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1246</v>
+        <v>1166</v>
       </c>
       <c r="B4" s="0">
-        <v>557.60535291275266</v>
+        <v>607.47303676170122</v>
       </c>
       <c r="C4" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0">
         <v>23</v>
@@ -181,18 +181,18 @@
         <v>104</v>
       </c>
       <c r="I4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1504</v>
+        <v>1581</v>
       </c>
       <c r="B5" s="0">
-        <v>525.10022144876336</v>
+        <v>516.71359739225488</v>
       </c>
       <c r="C5" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D5" s="0">
         <v>23</v>
@@ -210,18 +210,18 @@
         <v>105</v>
       </c>
       <c r="I5" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1987</v>
+        <v>1940</v>
       </c>
       <c r="B6" s="0">
-        <v>598.06691920695437</v>
+        <v>634.16820872826202</v>
       </c>
       <c r="C6" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="0">
         <v>23</v>
@@ -239,18 +239,18 @@
         <v>106</v>
       </c>
       <c r="I6" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B7" s="0">
-        <v>1275.8019878030937</v>
+        <v>1484.2893843913678</v>
       </c>
       <c r="C7" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7" s="0">
         <v>23</v>
@@ -268,18 +268,18 @@
         <v>107</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B8" s="0">
-        <v>1426.2096173708114</v>
+        <v>1279.1946899223187</v>
       </c>
       <c r="C8" s="0">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0">
         <v>23</v>
@@ -297,18 +297,18 @@
         <v>108</v>
       </c>
       <c r="I8" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>770</v>
+        <v>841</v>
       </c>
       <c r="B9" s="0">
-        <v>1484.7736039297029</v>
+        <v>1277.6458173303351</v>
       </c>
       <c r="C9" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="0">
         <v>23</v>
@@ -326,15 +326,15 @@
         <v>109</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1166</v>
+        <v>1253</v>
       </c>
       <c r="B10" s="0">
-        <v>1219.7648410597012</v>
+        <v>1316.8935183577241</v>
       </c>
       <c r="C10" s="0">
         <v>30</v>
@@ -355,18 +355,18 @@
         <v>110</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1564</v>
+        <v>1594</v>
       </c>
       <c r="B11" s="0">
-        <v>1336.2680601027726</v>
+        <v>1329.7835664613135</v>
       </c>
       <c r="C11" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="0">
         <v>23</v>
@@ -389,13 +389,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1905</v>
+        <v>1926</v>
       </c>
       <c r="B12" s="0">
-        <v>1426.7186115314973</v>
+        <v>1454.8851543190824</v>
       </c>
       <c r="C12" s="0">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0">
         <v>23</v>
@@ -413,18 +413,18 @@
         <v>112</v>
       </c>
       <c r="I12" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>885.39842321495655</v>
+        <v>901.02853931388597</v>
       </c>
       <c r="B13" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C13" s="0">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0">
         <v>23</v>
@@ -442,18 +442,18 @@
         <v>113</v>
       </c>
       <c r="I13" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>825.21019778337995</v>
+        <v>842.4560407079141</v>
       </c>
       <c r="B14" s="0">
-        <v>667.33333333333337</v>
+        <v>666.33333333333337</v>
       </c>
       <c r="C14" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="0">
         <v>23</v>
@@ -471,18 +471,18 @@
         <v>114</v>
       </c>
       <c r="I14" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>827.53409539251675</v>
+        <v>788.14332709741007</v>
       </c>
       <c r="B15" s="0">
-        <v>1303.6666666666667</v>
+        <v>1312.6666666666667</v>
       </c>
       <c r="C15" s="0">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0">
         <v>23</v>
@@ -500,18 +500,18 @@
         <v>115</v>
       </c>
       <c r="I15" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>889.34598981871932</v>
+        <v>872.69993819216518</v>
       </c>
       <c r="B16" s="0">
-        <v>1961</v>
+        <v>1915</v>
       </c>
       <c r="C16" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0">
         <v>23</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1247.6435532669968</v>
+        <v>1285.4235649864843</v>
       </c>
       <c r="B17" s="0">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="C17" s="0">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D17" s="0">
         <v>23</v>
@@ -558,18 +558,18 @@
         <v>117</v>
       </c>
       <c r="I17" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1267.608835669193</v>
+        <v>1322.9169635074145</v>
       </c>
       <c r="B18" s="0">
-        <v>659.33333333333337</v>
+        <v>671.33333333333337</v>
       </c>
       <c r="C18" s="0">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0">
         <v>23</v>
@@ -587,18 +587,18 @@
         <v>118</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1251.6597233321656</v>
+        <v>1207.3630066433072</v>
       </c>
       <c r="B19" s="0">
-        <v>1306.6666666666667</v>
+        <v>1313.6666666666667</v>
       </c>
       <c r="C19" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D19" s="0">
         <v>23</v>
@@ -616,18 +616,18 @@
         <v>119</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1312.4381818966961</v>
+        <v>1242.9706280195371</v>
       </c>
       <c r="B20" s="0">
-        <v>1993</v>
+        <v>1953</v>
       </c>
       <c r="C20" s="0">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0">
         <v>23</v>
@@ -645,7 +645,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoUAV.xlsx
+++ b/data/InfoUAV.xlsx
@@ -70,13 +70,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="B1" s="0">
-        <v>518.79166569739186</v>
+        <v>668.77400328259671</v>
       </c>
       <c r="C1" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D1" s="0">
         <v>23</v>
@@ -94,18 +94,18 @@
         <v>101</v>
       </c>
       <c r="I1" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>434</v>
+        <v>356</v>
       </c>
       <c r="B2" s="0">
-        <v>471.3308691992213</v>
+        <v>728.1277389050407</v>
       </c>
       <c r="C2" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0">
         <v>23</v>
@@ -128,13 +128,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>884</v>
+        <v>813</v>
       </c>
       <c r="B3" s="0">
-        <v>606.5769472566792</v>
+        <v>741.41962528554302</v>
       </c>
       <c r="C3" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0">
         <v>23</v>
@@ -152,18 +152,18 @@
         <v>103</v>
       </c>
       <c r="I3" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1166</v>
+        <v>1191</v>
       </c>
       <c r="B4" s="0">
-        <v>607.47303676170122</v>
+        <v>618.1984811039174</v>
       </c>
       <c r="C4" s="0">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D4" s="0">
         <v>23</v>
@@ -181,18 +181,18 @@
         <v>104</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1581</v>
+        <v>1556</v>
       </c>
       <c r="B5" s="0">
-        <v>516.71359739225488</v>
+        <v>566.63184052619306</v>
       </c>
       <c r="C5" s="0">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0">
         <v>23</v>
@@ -210,18 +210,18 @@
         <v>105</v>
       </c>
       <c r="I5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1940</v>
+        <v>1913</v>
       </c>
       <c r="B6" s="0">
-        <v>634.16820872826202</v>
+        <v>562.80451631936455</v>
       </c>
       <c r="C6" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="0">
         <v>23</v>
@@ -239,18 +239,18 @@
         <v>106</v>
       </c>
       <c r="I6" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B7" s="0">
-        <v>1484.2893843913678</v>
+        <v>1481.1137711060067</v>
       </c>
       <c r="C7" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D7" s="0">
         <v>23</v>
@@ -268,18 +268,18 @@
         <v>107</v>
       </c>
       <c r="I7" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="B8" s="0">
-        <v>1279.1946899223187</v>
+        <v>1240.0368820188348</v>
       </c>
       <c r="C8" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0">
         <v>23</v>
@@ -302,13 +302,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>841</v>
+        <v>789</v>
       </c>
       <c r="B9" s="0">
-        <v>1277.6458173303351</v>
+        <v>1377.5363285771955</v>
       </c>
       <c r="C9" s="0">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0">
         <v>23</v>
@@ -326,18 +326,18 @@
         <v>109</v>
       </c>
       <c r="I9" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B10" s="0">
-        <v>1316.8935183577241</v>
+        <v>1294.7171344237445</v>
       </c>
       <c r="C10" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0">
         <v>23</v>
@@ -355,18 +355,18 @@
         <v>110</v>
       </c>
       <c r="I10" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1594</v>
+        <v>1557</v>
       </c>
       <c r="B11" s="0">
-        <v>1329.7835664613135</v>
+        <v>1277.932408663155</v>
       </c>
       <c r="C11" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0">
         <v>23</v>
@@ -389,13 +389,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1926</v>
+        <v>1995</v>
       </c>
       <c r="B12" s="0">
-        <v>1454.8851543190824</v>
+        <v>1341.6809093482766</v>
       </c>
       <c r="C12" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D12" s="0">
         <v>23</v>
@@ -418,13 +418,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>901.02853931388597</v>
+        <v>797.27940516427941</v>
       </c>
       <c r="B13" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C13" s="0">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0">
         <v>23</v>
@@ -442,18 +442,18 @@
         <v>113</v>
       </c>
       <c r="I13" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>842.4560407079141</v>
+        <v>701.80583889269428</v>
       </c>
       <c r="B14" s="0">
-        <v>666.33333333333337</v>
+        <v>746.33333333333337</v>
       </c>
       <c r="C14" s="0">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0">
         <v>23</v>
@@ -471,18 +471,18 @@
         <v>114</v>
       </c>
       <c r="I14" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>788.14332709741007</v>
+        <v>829.19090783604906</v>
       </c>
       <c r="B15" s="0">
-        <v>1312.6666666666667</v>
+        <v>1326.6666666666667</v>
       </c>
       <c r="C15" s="0">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0">
         <v>23</v>
@@ -500,18 +500,18 @@
         <v>115</v>
       </c>
       <c r="I15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>872.69993819216518</v>
+        <v>766.69210850695356</v>
       </c>
       <c r="B16" s="0">
-        <v>1915</v>
+        <v>1919</v>
       </c>
       <c r="C16" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="0">
         <v>23</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1285.4235649864843</v>
+        <v>1340.3668307046541</v>
       </c>
       <c r="B17" s="0">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C17" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" s="0">
         <v>23</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1322.9169635074145</v>
+        <v>1271.7710826424909</v>
       </c>
       <c r="B18" s="0">
-        <v>671.33333333333337</v>
+        <v>621.33333333333337</v>
       </c>
       <c r="C18" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D18" s="0">
         <v>23</v>
@@ -587,18 +587,18 @@
         <v>118</v>
       </c>
       <c r="I18" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1207.3630066433072</v>
+        <v>1338.8850257006384</v>
       </c>
       <c r="B19" s="0">
-        <v>1313.6666666666667</v>
+        <v>1314.6666666666667</v>
       </c>
       <c r="C19" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0">
         <v>23</v>
@@ -616,18 +616,18 @@
         <v>119</v>
       </c>
       <c r="I19" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1242.9706280195371</v>
+        <v>1260.3982927237005</v>
       </c>
       <c r="B20" s="0">
-        <v>1953</v>
+        <v>2017</v>
       </c>
       <c r="C20" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="0">
         <v>23</v>
@@ -645,7 +645,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoUAV.xlsx
+++ b/data/InfoUAV.xlsx
@@ -70,13 +70,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0">
-        <v>668.77400328259671</v>
+        <v>746.80444664975255</v>
       </c>
       <c r="C1" s="0">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0">
         <v>23</v>
@@ -99,13 +99,13 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="B2" s="0">
-        <v>728.1277389050407</v>
+        <v>666.04646193089945</v>
       </c>
       <c r="C2" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0">
         <v>23</v>
@@ -128,13 +128,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="B3" s="0">
-        <v>741.41962528554302</v>
+        <v>628.02351339147799</v>
       </c>
       <c r="C3" s="0">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D3" s="0">
         <v>23</v>
@@ -157,13 +157,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1191</v>
+        <v>1209</v>
       </c>
       <c r="B4" s="0">
-        <v>618.1984811039174</v>
+        <v>679.41089166146674</v>
       </c>
       <c r="C4" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0">
         <v>23</v>
@@ -181,18 +181,18 @@
         <v>104</v>
       </c>
       <c r="I4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1556</v>
+        <v>1595</v>
       </c>
       <c r="B5" s="0">
-        <v>566.63184052619306</v>
+        <v>734.14338995924538</v>
       </c>
       <c r="C5" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0">
         <v>23</v>
@@ -210,18 +210,18 @@
         <v>105</v>
       </c>
       <c r="I5" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1913</v>
+        <v>1881</v>
       </c>
       <c r="B6" s="0">
-        <v>562.80451631936455</v>
+        <v>749.53371581288661</v>
       </c>
       <c r="C6" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0">
         <v>23</v>
@@ -239,18 +239,18 @@
         <v>106</v>
       </c>
       <c r="I6" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0">
-        <v>1481.1137711060067</v>
+        <v>1296.0116193955621</v>
       </c>
       <c r="C7" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="0">
         <v>23</v>
@@ -268,18 +268,18 @@
         <v>107</v>
       </c>
       <c r="I7" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B8" s="0">
-        <v>1240.0368820188348</v>
+        <v>1461.3555205018883</v>
       </c>
       <c r="C8" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0">
         <v>23</v>
@@ -297,18 +297,18 @@
         <v>108</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>789</v>
+        <v>861</v>
       </c>
       <c r="B9" s="0">
-        <v>1377.5363285771955</v>
+        <v>1501.099175721863</v>
       </c>
       <c r="C9" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="0">
         <v>23</v>
@@ -326,18 +326,18 @@
         <v>109</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1255</v>
+        <v>1228</v>
       </c>
       <c r="B10" s="0">
-        <v>1294.7171344237445</v>
+        <v>1389.4334513443566</v>
       </c>
       <c r="C10" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0">
         <v>23</v>
@@ -355,18 +355,18 @@
         <v>110</v>
       </c>
       <c r="I10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1557</v>
+        <v>1588</v>
       </c>
       <c r="B11" s="0">
-        <v>1277.932408663155</v>
+        <v>1276.0413601643654</v>
       </c>
       <c r="C11" s="0">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0">
         <v>23</v>
@@ -389,13 +389,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1995</v>
+        <v>1960</v>
       </c>
       <c r="B12" s="0">
-        <v>1341.6809093482766</v>
+        <v>1279.1191781146704</v>
       </c>
       <c r="C12" s="0">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0">
         <v>23</v>
@@ -413,18 +413,18 @@
         <v>112</v>
       </c>
       <c r="I12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>797.27940516427941</v>
+        <v>842.60487475990169</v>
       </c>
       <c r="B13" s="0">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C13" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0">
         <v>23</v>
@@ -442,15 +442,15 @@
         <v>113</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>701.80583889269428</v>
+        <v>817.92918629144401</v>
       </c>
       <c r="B14" s="0">
-        <v>746.33333333333337</v>
+        <v>637.33333333333337</v>
       </c>
       <c r="C14" s="0">
         <v>49</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>829.19090783604906</v>
+        <v>740.34041552840154</v>
       </c>
       <c r="B15" s="0">
-        <v>1326.6666666666667</v>
+        <v>1349.6666666666667</v>
       </c>
       <c r="C15" s="0">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0">
         <v>23</v>
@@ -500,18 +500,18 @@
         <v>115</v>
       </c>
       <c r="I15" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>766.69210850695356</v>
+        <v>816.99125562407107</v>
       </c>
       <c r="B16" s="0">
-        <v>1919</v>
+        <v>1968</v>
       </c>
       <c r="C16" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D16" s="0">
         <v>23</v>
@@ -529,18 +529,18 @@
         <v>116</v>
       </c>
       <c r="I16" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1340.3668307046541</v>
+        <v>1344.311686802999</v>
       </c>
       <c r="B17" s="0">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="C17" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D17" s="0">
         <v>23</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1271.7710826424909</v>
+        <v>1218.4535793313751</v>
       </c>
       <c r="B18" s="0">
-        <v>621.33333333333337</v>
+        <v>626.33333333333337</v>
       </c>
       <c r="C18" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0">
         <v>23</v>
@@ -587,18 +587,18 @@
         <v>118</v>
       </c>
       <c r="I18" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1338.8850257006384</v>
+        <v>1112.2972478921522</v>
       </c>
       <c r="B19" s="0">
-        <v>1314.6666666666667</v>
+        <v>1331.6666666666667</v>
       </c>
       <c r="C19" s="0">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="0">
         <v>23</v>
@@ -616,18 +616,18 @@
         <v>119</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1260.3982927237005</v>
+        <v>1357.0048206156587</v>
       </c>
       <c r="B20" s="0">
-        <v>2017</v>
+        <v>1908</v>
       </c>
       <c r="C20" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D20" s="0">
         <v>23</v>
@@ -645,7 +645,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoUAV.xlsx
+++ b/data/InfoUAV.xlsx
@@ -70,13 +70,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0">
-        <v>746.80444664975255</v>
+        <v>533.80181485532171</v>
       </c>
       <c r="C1" s="0">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0">
         <v>23</v>
@@ -94,18 +94,18 @@
         <v>101</v>
       </c>
       <c r="I1" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B2" s="0">
-        <v>666.04646193089945</v>
+        <v>645.76673095011483</v>
       </c>
       <c r="C2" s="0">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D2" s="0">
         <v>23</v>
@@ -123,18 +123,18 @@
         <v>102</v>
       </c>
       <c r="I2" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>844</v>
+        <v>796</v>
       </c>
       <c r="B3" s="0">
-        <v>628.02351339147799</v>
+        <v>651.60180688439016</v>
       </c>
       <c r="C3" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="0">
         <v>23</v>
@@ -152,18 +152,18 @@
         <v>103</v>
       </c>
       <c r="I3" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1209</v>
+        <v>1257</v>
       </c>
       <c r="B4" s="0">
-        <v>679.41089166146674</v>
+        <v>573.8933431702377</v>
       </c>
       <c r="C4" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0">
         <v>23</v>
@@ -181,18 +181,18 @@
         <v>104</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="B5" s="0">
-        <v>734.14338995924538</v>
+        <v>712.26752048350147</v>
       </c>
       <c r="C5" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="0">
         <v>23</v>
@@ -210,18 +210,18 @@
         <v>105</v>
       </c>
       <c r="I5" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1881</v>
+        <v>1945</v>
       </c>
       <c r="B6" s="0">
-        <v>749.53371581288661</v>
+        <v>534.52239421523177</v>
       </c>
       <c r="C6" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0">
         <v>23</v>
@@ -239,18 +239,18 @@
         <v>106</v>
       </c>
       <c r="I6" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B7" s="0">
-        <v>1296.0116193955621</v>
+        <v>1348.4708567454243</v>
       </c>
       <c r="C7" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="0">
         <v>23</v>
@@ -268,18 +268,18 @@
         <v>107</v>
       </c>
       <c r="I7" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="B8" s="0">
-        <v>1461.3555205018883</v>
+        <v>1270.848530741077</v>
       </c>
       <c r="C8" s="0">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0">
         <v>23</v>
@@ -297,18 +297,18 @@
         <v>108</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B9" s="0">
-        <v>1501.099175721863</v>
+        <v>1353.1692229832561</v>
       </c>
       <c r="C9" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0">
         <v>23</v>
@@ -331,13 +331,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1228</v>
+        <v>1176</v>
       </c>
       <c r="B10" s="0">
-        <v>1389.4334513443566</v>
+        <v>1195.325142175149</v>
       </c>
       <c r="C10" s="0">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D10" s="0">
         <v>23</v>
@@ -355,18 +355,18 @@
         <v>110</v>
       </c>
       <c r="I10" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1588</v>
+        <v>1604</v>
       </c>
       <c r="B11" s="0">
-        <v>1276.0413601643654</v>
+        <v>1287.2949177486837</v>
       </c>
       <c r="C11" s="0">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0">
         <v>23</v>
@@ -384,18 +384,18 @@
         <v>111</v>
       </c>
       <c r="I11" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1960</v>
+        <v>1990</v>
       </c>
       <c r="B12" s="0">
-        <v>1279.1191781146704</v>
+        <v>1317.6210137052428</v>
       </c>
       <c r="C12" s="0">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0">
         <v>23</v>
@@ -413,18 +413,18 @@
         <v>112</v>
       </c>
       <c r="I12" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>842.60487475990169</v>
+        <v>782.21139986850642</v>
       </c>
       <c r="B13" s="0">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0">
         <v>23</v>
@@ -442,18 +442,18 @@
         <v>113</v>
       </c>
       <c r="I13" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>817.92918629144401</v>
+        <v>765.23380980036745</v>
       </c>
       <c r="B14" s="0">
-        <v>637.33333333333337</v>
+        <v>674.33333333333337</v>
       </c>
       <c r="C14" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D14" s="0">
         <v>23</v>
@@ -471,18 +471,18 @@
         <v>114</v>
       </c>
       <c r="I14" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>740.34041552840154</v>
+        <v>834.79734573888925</v>
       </c>
       <c r="B15" s="0">
-        <v>1349.6666666666667</v>
+        <v>1352.6666666666667</v>
       </c>
       <c r="C15" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="0">
         <v>23</v>
@@ -500,18 +500,18 @@
         <v>115</v>
       </c>
       <c r="I15" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>816.99125562407107</v>
+        <v>853.83284155517981</v>
       </c>
       <c r="B16" s="0">
-        <v>1968</v>
+        <v>1954</v>
       </c>
       <c r="C16" s="0">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D16" s="0">
         <v>23</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1344.311686802999</v>
+        <v>1364.1586858524088</v>
       </c>
       <c r="B17" s="0">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0">
         <v>23</v>
@@ -558,18 +558,18 @@
         <v>117</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1218.4535793313751</v>
+        <v>1416.9069648826357</v>
       </c>
       <c r="B18" s="0">
-        <v>626.33333333333337</v>
+        <v>718.33333333333337</v>
       </c>
       <c r="C18" s="0">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0">
         <v>23</v>
@@ -587,18 +587,18 @@
         <v>118</v>
       </c>
       <c r="I18" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1112.2972478921522</v>
+        <v>1212.1776683908618</v>
       </c>
       <c r="B19" s="0">
-        <v>1331.6666666666667</v>
+        <v>1361.6666666666667</v>
       </c>
       <c r="C19" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D19" s="0">
         <v>23</v>
@@ -616,18 +616,18 @@
         <v>119</v>
       </c>
       <c r="I19" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1357.0048206156587</v>
+        <v>1283.4007063094621</v>
       </c>
       <c r="B20" s="0">
-        <v>1908</v>
+        <v>1919</v>
       </c>
       <c r="C20" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D20" s="0">
         <v>23</v>
@@ -645,7 +645,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoUAV.xlsx
+++ b/data/InfoUAV.xlsx
@@ -29,7 +29,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -38,13 +38,41 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -59,24 +87,24 @@
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="3.140625" customWidth="true"/>
-    <col min="4" max="4" width="3.140625" customWidth="true"/>
-    <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="2.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.85546875" customWidth="true"/>
-    <col min="8" max="8" width="4.140625" customWidth="true"/>
-    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="3.15625" customWidth="true"/>
+    <col min="5" max="5" width="3.15625" customWidth="true"/>
+    <col min="6" max="6" width="2.15625" customWidth="true"/>
+    <col min="7" max="7" width="2.82421875" customWidth="true"/>
+    <col min="8" max="8" width="4.15625" customWidth="true"/>
+    <col min="9" max="9" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0">
-        <v>533.80181485532171</v>
+        <v>656.45796043034625</v>
       </c>
       <c r="C1" s="0">
-        <v>20</v>
+        <v>31.462036207177412</v>
       </c>
       <c r="D1" s="0">
         <v>23</v>
@@ -94,18 +122,18 @@
         <v>101</v>
       </c>
       <c r="I1" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="0">
-        <v>645.76673095011483</v>
+        <v>679.25557439529859</v>
       </c>
       <c r="C2" s="0">
-        <v>21</v>
+        <v>30.813718704040284</v>
       </c>
       <c r="D2" s="0">
         <v>23</v>
@@ -128,13 +156,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="B3" s="0">
-        <v>651.60180688439016</v>
+        <v>508.68981417932906</v>
       </c>
       <c r="C3" s="0">
-        <v>45</v>
+        <v>46.524240913604153</v>
       </c>
       <c r="D3" s="0">
         <v>23</v>
@@ -157,13 +185,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1257</v>
+        <v>1190</v>
       </c>
       <c r="B4" s="0">
-        <v>573.8933431702377</v>
+        <v>552.75680554572432</v>
       </c>
       <c r="C4" s="0">
-        <v>34</v>
+        <v>44.799778951509062</v>
       </c>
       <c r="D4" s="0">
         <v>23</v>
@@ -181,18 +209,18 @@
         <v>104</v>
       </c>
       <c r="I4" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="B5" s="0">
-        <v>712.26752048350147</v>
+        <v>651.92415260834855</v>
       </c>
       <c r="C5" s="0">
-        <v>22</v>
+        <v>34.197159492295185</v>
       </c>
       <c r="D5" s="0">
         <v>23</v>
@@ -210,18 +238,18 @@
         <v>105</v>
       </c>
       <c r="I5" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1945</v>
+        <v>1950</v>
       </c>
       <c r="B6" s="0">
-        <v>534.52239421523177</v>
+        <v>673.44879723268537</v>
       </c>
       <c r="C6" s="0">
-        <v>42</v>
+        <v>49.351207173606227</v>
       </c>
       <c r="D6" s="0">
         <v>23</v>
@@ -239,18 +267,18 @@
         <v>106</v>
       </c>
       <c r="I6" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0">
-        <v>1348.4708567454243</v>
+        <v>1349.9332588877676</v>
       </c>
       <c r="C7" s="0">
-        <v>31</v>
+        <v>38.939889669965773</v>
       </c>
       <c r="D7" s="0">
         <v>23</v>
@@ -268,18 +296,18 @@
         <v>107</v>
       </c>
       <c r="I7" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="B8" s="0">
-        <v>1270.848530741077</v>
+        <v>1439.9119129252902</v>
       </c>
       <c r="C8" s="0">
-        <v>20</v>
+        <v>38.874107175196009</v>
       </c>
       <c r="D8" s="0">
         <v>23</v>
@@ -297,18 +325,18 @@
         <v>108</v>
       </c>
       <c r="I8" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>853</v>
+        <v>810</v>
       </c>
       <c r="B9" s="0">
-        <v>1353.1692229832561</v>
+        <v>1266.5415221766698</v>
       </c>
       <c r="C9" s="0">
-        <v>27</v>
+        <v>44.513178301753001</v>
       </c>
       <c r="D9" s="0">
         <v>23</v>
@@ -326,18 +354,18 @@
         <v>109</v>
       </c>
       <c r="I9" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="B10" s="0">
-        <v>1195.325142175149</v>
+        <v>1437.9742602958966</v>
       </c>
       <c r="C10" s="0">
-        <v>33</v>
+        <v>35.005953922449919</v>
       </c>
       <c r="D10" s="0">
         <v>23</v>
@@ -355,18 +383,18 @@
         <v>110</v>
       </c>
       <c r="I10" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>1604</v>
+        <v>1570</v>
       </c>
       <c r="B11" s="0">
-        <v>1287.2949177486837</v>
+        <v>1350.5844708042732</v>
       </c>
       <c r="C11" s="0">
-        <v>39</v>
+        <v>30.392949195263974</v>
       </c>
       <c r="D11" s="0">
         <v>23</v>
@@ -384,18 +412,18 @@
         <v>111</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1990</v>
+        <v>1950</v>
       </c>
       <c r="B12" s="0">
-        <v>1317.6210137052428</v>
+        <v>1363.5046613084621</v>
       </c>
       <c r="C12" s="0">
-        <v>50</v>
+        <v>45.248438256179391</v>
       </c>
       <c r="D12" s="0">
         <v>23</v>
@@ -413,18 +441,18 @@
         <v>112</v>
       </c>
       <c r="I12" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>782.21139986850642</v>
+        <v>868.93682176060736</v>
       </c>
       <c r="B13" s="0">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0">
-        <v>35</v>
+        <v>39.186978396526285</v>
       </c>
       <c r="D13" s="0">
         <v>23</v>
@@ -442,18 +470,18 @@
         <v>113</v>
       </c>
       <c r="I13" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>765.23380980036745</v>
+        <v>759.35757133264826</v>
       </c>
       <c r="B14" s="0">
-        <v>674.33333333333337</v>
+        <v>683.33333333333337</v>
       </c>
       <c r="C14" s="0">
-        <v>41</v>
+        <v>35.855062648954537</v>
       </c>
       <c r="D14" s="0">
         <v>23</v>
@@ -476,13 +504,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>834.79734573888925</v>
+        <v>892.48077211256964</v>
       </c>
       <c r="B15" s="0">
-        <v>1352.6666666666667</v>
+        <v>1316.6666666666667</v>
       </c>
       <c r="C15" s="0">
-        <v>46</v>
+        <v>40.809806827687403</v>
       </c>
       <c r="D15" s="0">
         <v>23</v>
@@ -500,18 +528,18 @@
         <v>115</v>
       </c>
       <c r="I15" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>853.83284155517981</v>
+        <v>886.5933505296324</v>
       </c>
       <c r="B16" s="0">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="C16" s="0">
-        <v>22</v>
+        <v>38.722587402391767</v>
       </c>
       <c r="D16" s="0">
         <v>23</v>
@@ -529,18 +557,18 @@
         <v>116</v>
       </c>
       <c r="I16" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1364.1586858524088</v>
+        <v>1301.4687346220446</v>
       </c>
       <c r="B17" s="0">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0">
-        <v>21</v>
+        <v>42.84033178022797</v>
       </c>
       <c r="D17" s="0">
         <v>23</v>
@@ -558,18 +586,18 @@
         <v>117</v>
       </c>
       <c r="I17" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1416.9069648826357</v>
+        <v>1247.0797549954739</v>
       </c>
       <c r="B18" s="0">
-        <v>718.33333333333337</v>
+        <v>683.33333333333337</v>
       </c>
       <c r="C18" s="0">
-        <v>42</v>
+        <v>47.546939964055881</v>
       </c>
       <c r="D18" s="0">
         <v>23</v>
@@ -587,18 +615,18 @@
         <v>118</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1212.1776683908618</v>
+        <v>1334.0308612367976</v>
       </c>
       <c r="B19" s="0">
-        <v>1361.6666666666667</v>
+        <v>1316.6666666666667</v>
       </c>
       <c r="C19" s="0">
-        <v>44</v>
+        <v>49.190444937901432</v>
       </c>
       <c r="D19" s="0">
         <v>23</v>
@@ -616,18 +644,18 @@
         <v>119</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1283.4007063094621</v>
+        <v>1238.5433848893333</v>
       </c>
       <c r="B20" s="0">
-        <v>1919</v>
+        <v>1950</v>
       </c>
       <c r="C20" s="0">
-        <v>31</v>
+        <v>41.768665639783798</v>
       </c>
       <c r="D20" s="0">
         <v>23</v>
@@ -645,7 +673,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/InfoUAV.xlsx
+++ b/data/InfoUAV.xlsx
@@ -29,7 +29,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -52,11 +52,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +74,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,10 +103,10 @@
         <v>50</v>
       </c>
       <c r="B1" s="0">
-        <v>656.45796043034625</v>
+        <v>703.68092159829473</v>
       </c>
       <c r="C1" s="0">
-        <v>31.462036207177412</v>
+        <v>43.114813983131739</v>
       </c>
       <c r="D1" s="0">
         <v>23</v>
@@ -122,7 +124,7 @@
         <v>101</v>
       </c>
       <c r="I1" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -130,10 +132,10 @@
         <v>430</v>
       </c>
       <c r="B2" s="0">
-        <v>679.25557439529859</v>
+        <v>726.44798426890475</v>
       </c>
       <c r="C2" s="0">
-        <v>30.813718704040284</v>
+        <v>30.714233571483792</v>
       </c>
       <c r="D2" s="0">
         <v>23</v>
@@ -151,7 +153,7 @@
         <v>102</v>
       </c>
       <c r="I2" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -159,10 +161,10 @@
         <v>810</v>
       </c>
       <c r="B3" s="0">
-        <v>508.68981417932906</v>
+        <v>531.74670407337658</v>
       </c>
       <c r="C3" s="0">
-        <v>46.524240913604153</v>
+        <v>46.98258611737554</v>
       </c>
       <c r="D3" s="0">
         <v>23</v>
@@ -180,7 +182,7 @@
         <v>103</v>
       </c>
       <c r="I3" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -188,10 +190,10 @@
         <v>1190</v>
       </c>
       <c r="B4" s="0">
-        <v>552.75680554572432</v>
+        <v>728.34396403475489</v>
       </c>
       <c r="C4" s="0">
-        <v>44.799778951509062</v>
+        <v>48.679864955151011</v>
       </c>
       <c r="D4" s="0">
         <v>23</v>
@@ -217,10 +219,10 @@
         <v>1570</v>
       </c>
       <c r="B5" s="0">
-        <v>651.92415260834855</v>
+        <v>658.0898115563524</v>
       </c>
       <c r="C5" s="0">
-        <v>34.197159492295185</v>
+        <v>43.574703097155471</v>
       </c>
       <c r="D5" s="0">
         <v>23</v>
@@ -246,10 +248,10 @@
         <v>1950</v>
       </c>
       <c r="B6" s="0">
-        <v>673.44879723268537</v>
+        <v>524.38510124985237</v>
       </c>
       <c r="C6" s="0">
-        <v>49.351207173606227</v>
+        <v>45.154802611566666</v>
       </c>
       <c r="D6" s="0">
         <v>23</v>
@@ -275,10 +277,10 @@
         <v>50</v>
       </c>
       <c r="B7" s="0">
-        <v>1349.9332588877676</v>
+        <v>1319.6245547167621</v>
       </c>
       <c r="C7" s="0">
-        <v>38.939889669965773</v>
+        <v>44.862649362498324</v>
       </c>
       <c r="D7" s="0">
         <v>23</v>
@@ -296,7 +298,7 @@
         <v>107</v>
       </c>
       <c r="I7" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -304,10 +306,10 @@
         <v>430</v>
       </c>
       <c r="B8" s="0">
-        <v>1439.9119129252902</v>
+        <v>1386.7203798012461</v>
       </c>
       <c r="C8" s="0">
-        <v>38.874107175196009</v>
+        <v>37.844540390683363</v>
       </c>
       <c r="D8" s="0">
         <v>23</v>
@@ -325,7 +327,7 @@
         <v>108</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -333,10 +335,10 @@
         <v>810</v>
       </c>
       <c r="B9" s="0">
-        <v>1266.5415221766698</v>
+        <v>1489.3767088585744</v>
       </c>
       <c r="C9" s="0">
-        <v>44.513178301753001</v>
+        <v>43.109557803551134</v>
       </c>
       <c r="D9" s="0">
         <v>23</v>
@@ -354,7 +356,7 @@
         <v>109</v>
       </c>
       <c r="I9" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -362,10 +364,10 @@
         <v>1190</v>
       </c>
       <c r="B10" s="0">
-        <v>1437.9742602958966</v>
+        <v>1491.2221337998192</v>
       </c>
       <c r="C10" s="0">
-        <v>35.005953922449919</v>
+        <v>33.423733756231236</v>
       </c>
       <c r="D10" s="0">
         <v>23</v>
@@ -383,7 +385,7 @@
         <v>110</v>
       </c>
       <c r="I10" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -391,10 +393,10 @@
         <v>1570</v>
       </c>
       <c r="B11" s="0">
-        <v>1350.5844708042732</v>
+        <v>1289.4032704193871</v>
       </c>
       <c r="C11" s="0">
-        <v>30.392949195263974</v>
+        <v>44.120921760392179</v>
       </c>
       <c r="D11" s="0">
         <v>23</v>
@@ -412,7 +414,7 @@
         <v>111</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -420,10 +422,10 @@
         <v>1950</v>
       </c>
       <c r="B12" s="0">
-        <v>1363.5046613084621</v>
+        <v>1492.6481954401538</v>
       </c>
       <c r="C12" s="0">
-        <v>45.248438256179391</v>
+        <v>30.636656927548415</v>
       </c>
       <c r="D12" s="0">
         <v>23</v>
@@ -441,18 +443,18 @@
         <v>112</v>
       </c>
       <c r="I12" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>868.93682176060736</v>
+        <v>893.57504223644185</v>
       </c>
       <c r="B13" s="0">
         <v>50</v>
       </c>
       <c r="C13" s="0">
-        <v>39.186978396526285</v>
+        <v>35.538459699217796</v>
       </c>
       <c r="D13" s="0">
         <v>23</v>
@@ -470,18 +472,18 @@
         <v>113</v>
       </c>
       <c r="I13" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>759.35757133264826</v>
+        <v>822.80634730842621</v>
       </c>
       <c r="B14" s="0">
         <v>683.33333333333337</v>
       </c>
       <c r="C14" s="0">
-        <v>35.855062648954537</v>
+        <v>30.923427812623078</v>
       </c>
       <c r="D14" s="0">
         <v>23</v>
@@ -499,18 +501,18 @@
         <v>114</v>
       </c>
       <c r="I14" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>892.48077211256964</v>
+        <v>870.04207033332</v>
       </c>
       <c r="B15" s="0">
         <v>1316.6666666666667</v>
       </c>
       <c r="C15" s="0">
-        <v>40.809806827687403</v>
+        <v>31.942635624716949</v>
       </c>
       <c r="D15" s="0">
         <v>23</v>
@@ -528,18 +530,18 @@
         <v>115</v>
       </c>
       <c r="I15" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>886.5933505296324</v>
+        <v>771.28295079408235</v>
       </c>
       <c r="B16" s="0">
         <v>1950</v>
       </c>
       <c r="C16" s="0">
-        <v>38.722587402391767</v>
+        <v>46.469156566545855</v>
       </c>
       <c r="D16" s="0">
         <v>23</v>
@@ -557,18 +559,18 @@
         <v>116</v>
       </c>
       <c r="I16" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1301.4687346220446</v>
+        <v>1263.2641923939414</v>
       </c>
       <c r="B17" s="0">
         <v>50</v>
       </c>
       <c r="C17" s="0">
-        <v>42.84033178022797</v>
+        <v>43.896572459516342</v>
       </c>
       <c r="D17" s="0">
         <v>23</v>
@@ -591,13 +593,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1247.0797549954739</v>
+        <v>1337.3603287783601</v>
       </c>
       <c r="B18" s="0">
         <v>683.33333333333337</v>
       </c>
       <c r="C18" s="0">
-        <v>47.546939964055881</v>
+        <v>36.341989601217207</v>
       </c>
       <c r="D18" s="0">
         <v>23</v>
@@ -615,18 +617,18 @@
         <v>118</v>
       </c>
       <c r="I18" s="0">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1334.0308612367976</v>
+        <v>1318.8310994339331</v>
       </c>
       <c r="B19" s="0">
         <v>1316.6666666666667</v>
       </c>
       <c r="C19" s="0">
-        <v>49.190444937901432</v>
+        <v>49.0044409767671</v>
       </c>
       <c r="D19" s="0">
         <v>23</v>
@@ -649,13 +651,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>1238.5433848893333</v>
+        <v>1343.9238639589355</v>
       </c>
       <c r="B20" s="0">
         <v>1950</v>
       </c>
       <c r="C20" s="0">
-        <v>41.768665639783798</v>
+        <v>30.688921610058173</v>
       </c>
       <c r="D20" s="0">
         <v>23</v>
@@ -673,7 +675,7 @@
         <v>120</v>
       </c>
       <c r="I20" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
